--- a/machines.xlsx
+++ b/machines.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>ip</t>
   </si>
@@ -31,25 +31,19 @@
     <t>OBS</t>
   </si>
   <si>
-    <t>192.168.101.96</t>
+    <t>192.168.101.*</t>
   </si>
   <si>
     <t>Caatinga</t>
   </si>
   <si>
-    <t>curso</t>
+    <t>user</t>
   </si>
   <si>
-    <t>curso123</t>
-  </si>
-  <si>
-    <t>192.168.101.2</t>
+    <t>senha</t>
   </si>
   <si>
     <t>Salem</t>
-  </si>
-  <si>
-    <t>192.168.101.11</t>
   </si>
   <si>
     <t>Soad</t>
@@ -1023,7 +1017,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1066,10 +1060,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1080,10 +1074,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
